--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2061048.548922256</v>
+        <v>-2063636.060127833</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>333.1025234911834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406815</v>
+        <v>48.08148421406807</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>184.3421843983131</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173974</v>
+        <v>11.79954938173971</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,10 +832,10 @@
         <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>98.62837588899008</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978304</v>
       </c>
       <c r="S4" t="n">
-        <v>64.84424158146138</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>35.92678269708541</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>33.38304376059015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>245.8056267012333</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>78.23263067809629</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>31.8068469129636</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>407.0181781096235</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>116.9388157418491</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>88.26520231092823</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>182.972813435864</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>86.88943397770457</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>5.890337106878263</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336588</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>105.6507867899569</v>
+        <v>142.8873577254016</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>14.73874327217517</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>143.2091541404064</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>16.09765778288713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128876</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>105.3219429113323</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>68.17501931583801</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096058</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,10 +3010,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541846</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,7 +3718,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
         <v>262.2383508445512</v>
@@ -3727,7 +3727,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.952255541464</v>
+        <v>1223.981281329665</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.989738601052</v>
+        <v>855.0187643892534</v>
       </c>
       <c r="D2" t="n">
-        <v>1236.522543155412</v>
+        <v>496.7530657825027</v>
       </c>
       <c r="E2" t="n">
-        <v>1236.522543155412</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="F2" t="n">
-        <v>825.5366383658045</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="G2" t="n">
-        <v>410.2937645803943</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="H2" t="n">
         <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247272</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730312</v>
+        <v>237.1001391730315</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315692</v>
+        <v>549.6723906315697</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529729</v>
+        <v>974.3476699529747</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808268</v>
+        <v>1478.550181808271</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811713</v>
+        <v>1995.525025811715</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076069</v>
+        <v>2470.354450076072</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259756</v>
+        <v>2841.109377259759</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510235</v>
+        <v>3071.358140510238</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623636</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="S2" t="n">
-        <v>3119.882870623636</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="T2" t="n">
-        <v>2913.159093565752</v>
+        <v>2913.159093565755</v>
       </c>
       <c r="U2" t="n">
-        <v>2659.614982949156</v>
+        <v>2913.159093565755</v>
       </c>
       <c r="V2" t="n">
-        <v>2328.552095605585</v>
+        <v>2726.954866900792</v>
       </c>
       <c r="W2" t="n">
-        <v>2328.552095605585</v>
+        <v>2374.186211630678</v>
       </c>
       <c r="X2" t="n">
-        <v>2328.552095605585</v>
+        <v>2000.720453369599</v>
       </c>
       <c r="Y2" t="n">
-        <v>2328.552095605585</v>
+        <v>1610.581121393787</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.6989405756882</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170478</v>
+        <v>74.31639416170481</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247272</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602528</v>
+        <v>147.6314117602529</v>
       </c>
       <c r="K3" t="n">
-        <v>371.4642984981859</v>
+        <v>371.4642984981863</v>
       </c>
       <c r="L3" t="n">
-        <v>718.7577785663798</v>
+        <v>718.7577785663805</v>
       </c>
       <c r="M3" t="n">
-        <v>1143.389757203035</v>
+        <v>1143.389757203036</v>
       </c>
       <c r="N3" t="n">
-        <v>1688.003857656069</v>
+        <v>1593.669125698064</v>
       </c>
       <c r="O3" t="n">
-        <v>2077.701715415265</v>
+        <v>1983.36698345726</v>
       </c>
       <c r="P3" t="n">
         <v>2371.135536393765</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1090.554288503538</v>
+        <v>2042.482063785718</v>
       </c>
       <c r="C4" t="n">
-        <v>921.6181055756307</v>
+        <v>2042.482063785718</v>
       </c>
       <c r="D4" t="n">
-        <v>771.5014661632949</v>
+        <v>2042.482063785718</v>
       </c>
       <c r="E4" t="n">
-        <v>623.5883725809018</v>
+        <v>1894.568970203325</v>
       </c>
       <c r="F4" t="n">
-        <v>476.6984250829914</v>
+        <v>1747.679022705415</v>
       </c>
       <c r="G4" t="n">
-        <v>308.9191422841529</v>
+        <v>1579.899739906576</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0222795225637</v>
+        <v>1433.002877144987</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247272</v>
+        <v>1333.378255034896</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038604</v>
+        <v>1373.203697426284</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589862</v>
+        <v>1568.48596988141</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712696</v>
+        <v>1873.906479893693</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583194</v>
+        <v>2206.318707680743</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468307</v>
+        <v>2536.261532090731</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090064</v>
+        <v>2825.000837712488</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.565915077021</v>
+        <v>3048.546512699445</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001215</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="R4" t="n">
-        <v>1848.902273001215</v>
+        <v>3026.615115431939</v>
       </c>
       <c r="S4" t="n">
-        <v>1783.403039080547</v>
+        <v>3026.615115431939</v>
       </c>
       <c r="T4" t="n">
-        <v>1561.309789999419</v>
+        <v>2804.52186635081</v>
       </c>
       <c r="U4" t="n">
-        <v>1272.202753333777</v>
+        <v>2804.52186635081</v>
       </c>
       <c r="V4" t="n">
-        <v>1272.202753333777</v>
+        <v>2549.837378144924</v>
       </c>
       <c r="W4" t="n">
-        <v>1272.202753333777</v>
+        <v>2260.420208107963</v>
       </c>
       <c r="X4" t="n">
-        <v>1272.202753333777</v>
+        <v>2260.420208107963</v>
       </c>
       <c r="Y4" t="n">
-        <v>1272.202753333777</v>
+        <v>2224.130528615958</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,46 +4650,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>856.7165163051885</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>687.7803333772816</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>537.6636939649459</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>389.7506003825528</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>242.8606528846424</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>242.8606528846424</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1805.335962651109</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1550.651474445222</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.157560278958</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X7" t="n">
-        <v>1259.157560278958</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y7" t="n">
-        <v>1038.364981135428</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.643962205201</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C8" t="n">
-        <v>1632.681445264789</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.415746658039</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>888.6274940597946</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>477.641589270187</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3097.195137235408</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2766.132249891837</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269323</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.243802269323</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>617.5020034330385</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C10" t="n">
-        <v>617.5020034330385</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>617.5020034330385</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>469.5889098506453</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>469.5889098506453</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>301.8860732253643</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>155.668886443222</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.5020034330385</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>962.6357307816226</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>793.6995478537157</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>643.5829084413799</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>495.6698148589868</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>348.7798673610764</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>181.5837680759563</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038343</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611862</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611862</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611862</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5273,52 +5273,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2273.199413378161</v>
+        <v>2235.58671546357</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>2015.985250486511</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1726.910023830709</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5604,10 +5604,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356196</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232839</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408908</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429804</v>
+        <v>275.9003817999355</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>108.7042825148155</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2052.406834234631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,19 +5838,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851677</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>696.7084350851677</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>546.5917956728319</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>398.6787020904388</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>251.7887545925284</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956955</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154074</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6078,10 +6078,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.000052934169</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1292.582882897208</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.593331999191</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.8007528556607</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746417</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349513</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,22 +6646,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,28 +6710,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7084,22 +7084,22 @@
         <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,10 +7129,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.33868158239</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,13 +7345,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7403,7 +7403,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,67 +7780,67 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>95.28760803838964</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.28760803838838</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21.58051812949952</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>143.4100740718218</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978307</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>126.243709582367</v>
+        <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>182.6578706550094</v>
       </c>
     </row>
     <row r="5">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40527886851929</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>211.51511322041</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892414</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.37549921168767</v>
+        <v>38.13892827624295</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>125.5559695740487</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>74.19629618688181</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>149.4264805093817</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>35.11263957635651</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.11969353038585</v>
+        <v>138.494940240508</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66311.33934030091</v>
+        <v>66311.33934030094</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900066</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900063</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
         <v>80714.65996900058</v>
       </c>
       <c r="J2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="K2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.1769864284</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642831</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023855</v>
+        <v>54832.77288023819</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>204074.6584503628</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594297</v>
+        <v>32664.34410594301</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15992.65981853502</v>
+        <v>15992.659818535</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818164</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,7 +26430,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26439,25 +26439,25 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992387</v>
+        <v>20987.72340992392</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992396</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992392</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="O4" t="n">
+        <v>20987.72340992397</v>
+      </c>
+      <c r="P4" t="n">
         <v>20987.72340992391</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20987.72340992389</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103892.028612043</v>
+        <v>103892.0286120431</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324640.646566617</v>
+        <v>-1325035.467507771</v>
       </c>
       <c r="C6" t="n">
-        <v>-172846.4353733852</v>
+        <v>-172846.4353733849</v>
       </c>
       <c r="D6" t="n">
-        <v>-118013.6624931467</v>
+        <v>-118013.6624931466</v>
       </c>
       <c r="E6" t="n">
-        <v>-358817.1958090923</v>
+        <v>-358851.9337345277</v>
       </c>
       <c r="F6" t="n">
-        <v>-33404.73400173696</v>
+        <v>-33439.47192717265</v>
       </c>
       <c r="G6" t="n">
-        <v>-33404.73400173691</v>
+        <v>-33439.47192717262</v>
       </c>
       <c r="H6" t="n">
-        <v>-33404.73400173691</v>
+        <v>-33439.47192717265</v>
       </c>
       <c r="I6" t="n">
-        <v>-33404.73400173697</v>
+        <v>-33439.47192717266</v>
       </c>
       <c r="J6" t="n">
-        <v>-237479.3924520997</v>
+        <v>-237514.1303775355</v>
       </c>
       <c r="K6" t="n">
-        <v>-74712.00638335386</v>
+        <v>-74712.00638335393</v>
       </c>
       <c r="L6" t="n">
-        <v>-42047.66227741091</v>
+        <v>-42047.66227741086</v>
       </c>
       <c r="M6" t="n">
-        <v>-127102.6902129227</v>
+        <v>-127102.6902129228</v>
       </c>
       <c r="N6" t="n">
+        <v>-42047.66227741096</v>
+      </c>
+      <c r="O6" t="n">
         <v>-42047.66227741101</v>
       </c>
-      <c r="O6" t="n">
-        <v>-42047.66227741099</v>
-      </c>
       <c r="P6" t="n">
-        <v>-61475.38027104267</v>
+        <v>-61475.3802710427</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.970717655909</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303277</v>
+        <v>41.96894928303254</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.970717655909</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
-        <v>51.4307377463839</v>
+        <v>51.43073774638344</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="K4" t="n">
         <v>51.43073774638344</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.970717655909</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="K4" t="n">
-        <v>51.4307377463839</v>
+        <v>51.43073774638344</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>331.8898480104174</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>108.8774149194496</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,7 +27673,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5223842362245</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>254.4049912926493</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.903547543829916</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>134.0563562170529</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>8.087218098909858</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>35.61183991623076</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.276139040289943e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28302,13 +28302,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.706357804527215e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578954</v>
+        <v>4.212292467578956</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359297</v>
+        <v>43.13914023359299</v>
       </c>
       <c r="I2" t="n">
         <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>357.5130578201797</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727968</v>
+        <v>535.819397972797</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774663</v>
+        <v>664.7313435774666</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477735</v>
+        <v>739.6416997477738</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212823</v>
+        <v>751.6098757212826</v>
       </c>
       <c r="O2" t="n">
-        <v>709.723892496794</v>
+        <v>709.7238924967943</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034385</v>
+        <v>605.7329222034388</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>454.8801982082672</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>264.6004167165568</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495551</v>
+        <v>95.98761460495554</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.43931027682689</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3369833974063164</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>2.253775163195666</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>21.76672328665289</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967534</v>
+        <v>77.59708346967537</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>212.9323280280608</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621703</v>
+        <v>363.9352639621704</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982519</v>
+        <v>489.3558747982521</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640946</v>
+        <v>571.0552244640949</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278061</v>
+        <v>586.1693570278063</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012073</v>
+        <v>536.2304442012075</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825127</v>
+        <v>430.3722063825129</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>287.6924225861696</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>41.86288515848089</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284279</v>
+        <v>9.084295504284285</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1482746817891887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>16.79927837346624</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826818</v>
+        <v>56.82209903826821</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>219.5243124876261</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086571</v>
+        <v>280.9155404086573</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>296.1860500957854</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>289.1434078328806</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>267.070736350361</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431437</v>
+        <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>158.2189704478502</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738642</v>
+        <v>84.95831373738645</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>32.92864687314392</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964337</v>
+        <v>8.073272837964341</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>556.7959610899857</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N30" t="n">
-        <v>556.7959610899857</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934933</v>
+        <v>176.4671532934934</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278162</v>
+        <v>315.7295469278164</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074791</v>
+        <v>428.9649286074794</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205008</v>
+        <v>509.2954665205011</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>522.1968121246916</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751072</v>
+        <v>479.6256810751075</v>
       </c>
       <c r="P2" t="n">
-        <v>374.499926448169</v>
+        <v>374.4999264481692</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>232.5745083338178</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242458</v>
+        <v>49.0148789024247</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139402</v>
+        <v>86.0947013613941</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878113</v>
+        <v>226.0938249878114</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183777</v>
+        <v>350.8014950183779</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420763</v>
+        <v>428.9211905420765</v>
       </c>
       <c r="N3" t="n">
-        <v>550.1152529828624</v>
+        <v>454.827644944473</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567629</v>
+        <v>393.6341997567631</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681824</v>
+        <v>391.685407006571</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.710648500148</v>
+        <v>147.7106485001481</v>
       </c>
       <c r="R3" t="n">
-        <v>39.77392554120711</v>
+        <v>39.77392554120716</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726057</v>
+        <v>40.22771958726062</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617432</v>
+        <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>308.5055656689734</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>335.769927057626</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>333.2755802121092</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>291.6558642644006</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>225.8037121080373</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615571</v>
+        <v>72.05692719615577</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>425.4542490066523</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N30" t="n">
-        <v>425.4542490066523</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
